--- a/STATISTIC .ASSESSMENT.xlsx
+++ b/STATISTIC .ASSESSMENT.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95435299fddc478d/Desktop/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{AB06CA83-BE23-41E6-B28F-0437EBDAEB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0009C54E-1AC5-48ED-86BA-0328E0AD05E0}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{AB06CA83-BE23-41E6-B28F-0437EBDAEB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFEA1DF0-72DD-4FB0-8460-6D9572630F0E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{53A5B192-6451-4C11-83B7-9D80EA01F242}"/>
   </bookViews>
   <sheets>
-    <sheet name="POPULATION V" sheetId="1" r:id="rId1"/>
-    <sheet name="SAMPLE V" sheetId="2" r:id="rId2"/>
+    <sheet name="RAW DATA" sheetId="3" r:id="rId1"/>
+    <sheet name="POPULATION V" sheetId="1" r:id="rId2"/>
+    <sheet name="SAMPLE V" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2D83BEF9-F62A-45E3-9B56-E6E4BE21E354}</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{2D83BEF9-F62A-45E3-9B56-E6E4BE21E354}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I have  converted raw data into excel and find out the variance of the population by using the formula.
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1A675D10-6056-423B-BDAD-A0E03C5FDDBD}</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{1A675D10-6056-423B-BDAD-A0E03C5FDDBD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Here ,I have found out the variance of the sample by using excel formula</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>MONTH</t>
   </si>
@@ -152,13 +190,25 @@
   </si>
   <si>
     <t>Group 3</t>
+  </si>
+  <si>
+    <t>Module 3 Applied Statistics in Excel</t>
+  </si>
+  <si>
+    <t>Variance Examples</t>
+  </si>
+  <si>
+    <t>Question 1 - Calculate Population Variance in Excel</t>
+  </si>
+  <si>
+    <t>Question 2 - Calculate Sample Variance in Excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +229,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -234,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,6 +350,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="132234 131003" id="{77ADC349-1CED-40D6-ABB5-1350C040BF59}" userId="95435299fddc478d" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,13 +653,71 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K3" dT="2024-07-22T09:51:13.62" personId="{77ADC349-1CED-40D6-ABB5-1350C040BF59}" id="{2D83BEF9-F62A-45E3-9B56-E6E4BE21E354}">
+    <text xml:space="preserve">I have  converted raw data into excel and find out the variance of the population by using the formula.
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K3" dT="2024-07-22T09:52:07.51" personId="{77ADC349-1CED-40D6-ABB5-1350C040BF59}" id="{1A675D10-6056-423B-BDAD-A0E03C5FDDBD}">
+    <text>Here ,I have found out the variance of the sample by using excel formula</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ED9A1A-16C8-42F7-A91E-33DC3E0CF9BE}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BD219C-ADEF-420A-8569-9E6A4A57D1F9}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ED9A1A-16C8-42F7-A91E-33DC3E0CF9BE}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +727,7 @@
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
@@ -623,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -645,7 +766,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>39083</v>
       </c>
@@ -670,7 +791,7 @@
         <v>6170524.6913580243</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>39114</v>
       </c>
@@ -691,7 +812,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>39142</v>
       </c>
@@ -712,7 +833,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>39173</v>
       </c>
@@ -733,7 +854,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>39203</v>
       </c>
@@ -754,7 +875,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>39234</v>
       </c>
@@ -775,7 +896,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>39264</v>
       </c>
@@ -796,7 +917,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>39295</v>
       </c>
@@ -817,7 +938,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>39326</v>
       </c>
@@ -838,7 +959,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>39356</v>
       </c>
@@ -859,7 +980,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>39387</v>
       </c>
@@ -880,7 +1001,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>39417</v>
       </c>
@@ -910,16 +1031,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2548796E-A169-4F67-9794-9B0BAFF93702}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2548796E-A169-4F67-9794-9B0BAFF93702}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +1050,7 @@
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>36</v>
       </c>
@@ -945,7 +1067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
@@ -966,7 +1088,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1112,7 @@
         <v>9.2619047619047628</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1132,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1152,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1172,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +1192,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1212,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1232,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
@@ -1139,5 +1261,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>